--- a/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.55</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.98</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9726</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,13 +909,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,26 +976,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>75.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6464</t>
+          <t>1.9726</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -882,36 +1004,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014038</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银启诚混合A</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8943</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -920,158 +1042,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013430</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银趋势优先混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4263</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014039</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银启诚混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2484</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.97</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>4.22</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.55</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -732,176 +881,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>108.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -976,6 +955,176 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>91.75</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
+++ b/数据整理/stocks/A股/上证主板/603380-易德龙.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.26</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.55</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -605,22 +622,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>014038</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合A</t>
+          <t>交银启诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.94</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.61</t>
+          <t>81.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -630,11 +647,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9642</t>
+          <t>0.5752</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -643,22 +660,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013430</t>
+          <t>014039</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银趋势优先混合C</t>
+          <t>交银启诚混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.61</t>
+          <t>81.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -668,11 +685,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2951</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +698,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -881,176 +1030,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>108.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1125,6 +1104,176 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>108.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>91.75</t>
         </is>
       </c>
